--- a/downloaded_files/EPES303_Lecture-35521.xlsx
+++ b/downloaded_files/EPES303_Lecture-35521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Salma Amr Kamal Faragalla</x:t>
   </x:si>
   <x:si>
+    <x:t>1230298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيف الله حسام ابو ناعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDELRAHMAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230060</x:t>
   </x:si>
   <x:si>
@@ -256,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Mohamed Ahmed Nasr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حازم عبد السلام محمد ناصف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hazem Abdel Salam Mohamed Nasef</x:t>
   </x:si>
   <x:si>
     <x:t>1230107</x:t>
@@ -461,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -771,7 +789,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1172,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45922.5535414005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.401759375</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4196498843</x:v>
+        <x:v>45914.401759375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4196498843</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650525463</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45906.6650525463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4199702894</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.4199702894</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6699670139</x:v>
+        <x:v>45922.5544126968</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45906.6699670139</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1975,70 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4150058681</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Lecture-35521.xlsx
+++ b/downloaded_files/EPES303_Lecture-35521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Salma Amr Kamal Faragalla</x:t>
   </x:si>
   <x:si>
+    <x:t>1230051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman ahmed mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230298</x:t>
   </x:si>
   <x:si>
@@ -195,15 +204,6 @@
     <x:t>Omar Mohamed Kamal</x:t>
   </x:si>
   <x:si>
-    <x:t>1230222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمود عبد الرؤف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240039</x:t>
   </x:si>
   <x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Yousry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد ممدوح عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed Mamdouh Ashour</x:t>
   </x:si>
   <x:si>
     <x:t>1210358</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1190,7 +1199,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.5535414005</x:v>
+        <x:v>45907.4381296296</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1231,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45922.5535414005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45923.2929736921</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Lecture-35521.xlsx
+++ b/downloaded_files/EPES303_Lecture-35521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1230064</x:t>
@@ -488,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -796,7 +787,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1295,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4309328356</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4309328356</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45914.401759375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.401759375</x:v>
+        <x:v>45907.4196498843</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4196498843</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45906.6650525463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6650525463</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45927.4336868403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4199702894</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45922.5544126968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.5544126968</x:v>
+        <x:v>45927.4255918171</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45906.6699670139</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6699670139</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45923.2929736921</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45923.2929736921</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2048,38 +2039,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.414475463</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Lecture-35521.xlsx
+++ b/downloaded_files/EPES303_Lecture-35521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,6 +328,15 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Essam Mohamed Ahmed Wahba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمد رشدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mohamed Roshdy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210327</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45927.7219298611</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Lecture-35521.xlsx
+++ b/downloaded_files/EPES303_Lecture-35521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى ابراهيم عبده الريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
   </x:si>
   <x:si>
     <x:t>4240039</x:t>
@@ -488,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1455,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.401759375</x:v>
+        <x:v>45929.3148129977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4196498843</x:v>
+        <x:v>45914.401759375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4196498843</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6650525463</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45906.6650525463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4336868403</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45927.4336868403</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45922.5544126968</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4255918171</x:v>
+        <x:v>45922.5544126968</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6699670139</x:v>
+        <x:v>45927.4255918171</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45906.6699670139</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.2929736921</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45923.2929736921</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.7219298611</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45927.7219298611</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4147908912</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.4147908912</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2089,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
